--- a/计划表.xlsx
+++ b/计划表.xlsx
@@ -86,12 +86,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,9 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -116,14 +128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,7 +414,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,7 +439,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -440,10 +447,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -454,8 +461,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4">
@@ -466,7 +473,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -478,7 +485,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -490,7 +497,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
